--- a/biology/Médecine/Couche_pour_adulte/Couche_pour_adulte.xlsx
+++ b/biology/Médecine/Couche_pour_adulte/Couche_pour_adulte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couche pour adulte est un produit semblable aux couches pour très jeunes enfants mais adapté aux corps des personnes adultes ou adolescentes. Les couches peuvent être nécessaires pour les individus affectés par différents troubles, comme l'incontinence urinaire ou fécale, un handicap physique, des diarrhées sévères ou de la démence[réf. nécessaire].
 </t>
@@ -511,9 +523,11 @@
           <t>Types de couches pour adulte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fabricants proposent différents types de couches pour adulte afin de répondre à des besoins spécifiques selon que la personne est autonome ou dépendante, alitée ou mobile, que l'incontinence est faible ou forte, et urinaire ou mixte[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fabricants proposent différents types de couches pour adulte afin de répondre à des besoins spécifiques selon que la personne est autonome ou dépendante, alitée ou mobile, que l'incontinence est faible ou forte, et urinaire ou mixte, :
 Les changes-complets, également appelés couches-culottes, forment une vraie culotte que l'on referme sur les côtés avec des fixations autocollantes ou à scratch. Ce sont des couches adaptées à une incontinence forte ou mixte.
 Les couches anatomiques forment une couche en forme de 8 à glisser dans une culotte de maintien ou une culotte imperméable en plastique. Ce sont des couches adaptées à une incontinence modérée, essentiellement urinaire.
 Les pants sont des couches à enfiler comme des sous-vêtements. Ce sont des couches adaptées à une incontinence faible ou modérée urinaire. Certains modèles de pants pour enfants/adolescents peuvent aussi être adaptés aux adultes de petite ou moyenne corpulence.
